--- a/blog.xlsx
+++ b/blog.xlsx
@@ -75,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -86,6 +86,9 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -333,7 +336,7 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -341,7 +344,7 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
